--- a/advanced-prompting/gpt-4o-mini-2024-07-18_parsed.xlsx
+++ b/advanced-prompting/gpt-4o-mini-2024-07-18_parsed.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Sanger sequencing</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Canada</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>RT</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>PBMC</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>RT</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2008–2014</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Plasma, PBMC</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Raltegravir, Tenofovir, Emtricitabine</t>
+          <t>Tenofovir, Emtricitabine, Raltegravir</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Pol</t>
+          <t>PR, RT</t>
         </is>
       </c>
     </row>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>K03455</t>
         </is>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Pol (indicating a focus on the *pol* region including protease and reverse transcriptase)</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -8077,7 +8077,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>MW484894, MW484895, MW484893, DQ380549, MW48492, AF324493</t>
+          <t>MW484894, MW484895, MW484893, DQ380549, AF492618</t>
         </is>
       </c>
     </row>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>PR, RT</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Lesotho</t>
         </is>
       </c>
     </row>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9253,7 +9253,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>TDF, 3TC, EFV, DTG</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>2021–2022</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>UK, USA, Belgium, Canada, Netherlands, Switzerland, Portugal, Italy, South Korea, Spain</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>2016–2020</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Cabotegravir, Rilpivirine</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Sanger sequencing</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>NRTI</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>TAF, FTC, DTG, TDF, EFV</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Sanger sequencing and NGS</t>
+          <t>Sanger sequencing, NGS</t>
         </is>
       </c>
     </row>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -12417,7 +12417,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>NRTI, PI, INSTI</t>
+          <t>NRTI, NNRTI, PI</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Ritonavir-boosted PI, NNRTI, INSTI</t>
+          <t>Ritonavir-boosted PIs, NNRTIs</t>
         </is>
       </c>
     </row>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>** No</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>** No</t>
+          <t>No.</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>** No</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>** Not reported</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>** Not reported</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>** Not reported</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13649,7 +13649,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>** Not reported</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>** Not applicable</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13705,7 +13705,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>** Not applicable</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>** Not applicable</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13761,7 +13761,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>** Not reported</t>
+          <t>Not reported.</t>
         </is>
       </c>
     </row>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>** Not applicable</t>
+          <t>Yes.</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>** Yes</t>
+          <t>Yes.</t>
         </is>
       </c>
     </row>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>** Yes</t>
+          <t>Yes.</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>** ART-experienced (CAB, RPV)</t>
+          <t>INSTI, NNRTI.</t>
         </is>
       </c>
     </row>
@@ -13901,7 +13901,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>** CAB, RPV</t>
+          <t>Cabotegravir, Rilpivirine.</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2019–2022</t>
+          <t>2020–2022</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Nested PCR</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>CSF, Plasma</t>
+          <t>Plasma, CSF</t>
         </is>
       </c>
     </row>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>NRTI</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -14769,7 +14769,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>NRTI</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Tenofovir, Lamivudine, Emtricitabine</t>
+          <t>Tenofovir, Lamivudine/Emtricitabine, Efavirenz/Nevirapine</t>
         </is>
       </c>
     </row>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -15021,7 +15021,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15077,7 +15077,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Sanger and NGS</t>
+          <t>Sanger sequencing and NGS</t>
         </is>
       </c>
     </row>
@@ -15133,7 +15133,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>** Yes.</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -15301,7 +15301,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>** No.</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>** No.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>** Not reported.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>** 1653.</t>
+          <t>1653</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>** China.</t>
+          <t>China</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>** 2016–2020.</t>
+          <t>2016–2020</t>
         </is>
       </c>
     </row>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>** No.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>** Pol.</t>
+          <t>PR, RT</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>** Sanger sequencing.</t>
+          <t>Sanger sequencing</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>** Plasma.</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>** No.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15609,7 +15609,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>** No.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>** No.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>** None.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>** Not applicable.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Pol</t>
         </is>
       </c>
     </row>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Botswana, Eswatini, Lesotho, Malawi, Tanzania, Uganda</t>
         </is>
       </c>
     </row>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>2017–2020</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16449,7 +16449,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16561,7 +16561,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16589,7 +16589,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2018–2019</t>
+          <t>2018-2019</t>
         </is>
       </c>
     </row>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Whole Blood</t>
         </is>
       </c>
     </row>
@@ -16925,7 +16925,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -17037,7 +17037,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -17261,7 +17261,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -17457,7 +17457,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>NNRTI</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -17513,7 +17513,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -17625,7 +17625,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>PR, Gag</t>
+          <t>PR</t>
         </is>
       </c>
     </row>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -17905,7 +17905,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -17989,7 +17989,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>No.</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -18017,7 +18017,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>No.</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18045,7 +18045,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>Not reported.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>Not reported.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>Sweden.</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>Not reported.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18157,7 +18157,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>Not applicable.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>Not applicable.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>Not reported.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18241,7 +18241,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>Plasma, CSF.</t>
+          <t>Plasma, PBMC</t>
         </is>
       </c>
     </row>
@@ -18269,7 +18269,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>Not reported.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18297,7 +18297,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>Not reported.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18353,7 +18353,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>Not reported.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18381,7 +18381,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>Not applicable.</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>** Yes</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18437,7 +18437,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>** No</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -18465,7 +18465,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>** No</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>** Not reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>** 190</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -18549,7 +18549,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>** Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>** 2005–2020</t>
+          <t>2005–2020</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>** No</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>** Pol</t>
+          <t>PR, RT, IN</t>
         </is>
       </c>
     </row>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>** NGS</t>
+          <t>NGS</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>** Plasma, PBMC</t>
+          <t>Plasma, PBMC</t>
         </is>
       </c>
     </row>
@@ -18717,7 +18717,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>** No</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>** Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>** No</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -18801,7 +18801,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>** None</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -18829,7 +18829,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>** Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -18913,7 +18913,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -18997,7 +18997,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19109,7 +19109,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19165,7 +19165,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19221,7 +19221,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19277,7 +19277,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19333,7 +19333,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19445,7 +19445,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19473,7 +19473,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19501,7 +19501,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19529,7 +19529,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19585,7 +19585,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19669,7 +19669,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19697,7 +19697,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -19865,7 +19865,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>899</t>
         </is>
       </c>
     </row>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>Plasma, Whole Blood</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>Ritonavir-boosted Lopinavir, Efavirenz</t>
+          <t>Ritonavir-boosted lopinavir, efavirenz, lamivudine, abacavir</t>
         </is>
       </c>
     </row>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Pol</t>
         </is>
       </c>
     </row>
@@ -20565,7 +20565,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -20929,7 +20929,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>Whole Blood</t>
+          <t>Whole Blood, Plasma</t>
         </is>
       </c>
     </row>
@@ -21377,7 +21377,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>Whole Blood, Plasma</t>
+          <t>Plasma, Whole Blood</t>
         </is>
       </c>
     </row>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>NRTI, PI, INSTI</t>
+          <t>NRTI, NNRTI, PI</t>
         </is>
       </c>
     </row>
@@ -21657,7 +21657,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -21741,7 +21741,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -21853,7 +21853,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -21965,7 +21965,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -22217,7 +22217,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -22245,7 +22245,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Sanger sequencing</t>
         </is>
       </c>
     </row>
@@ -22273,7 +22273,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -22329,7 +22329,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -22413,7 +22413,7 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -23029,7 +23029,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -23085,7 +23085,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>Sanger sequencing and NGS (Illumina technology)</t>
+          <t>Sanger sequencing and ultra-deep sequencing (UDS)</t>
         </is>
       </c>
     </row>
@@ -23169,7 +23169,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>Blood plasma, semen</t>
+          <t>Plasma, Semen</t>
         </is>
       </c>
     </row>
@@ -23281,7 +23281,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI, PI, INSTI</t>
+          <t>NRTI, NNRTI, INSTI, PI</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>Tenofovir/emtricitabine, tenofovir alafenamide/emtricitabine, abacavir/lamivudine</t>
+          <t>Tenofovir, Emtricitabine</t>
         </is>
       </c>
     </row>
@@ -23421,7 +23421,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>K03455</t>
         </is>
       </c>
     </row>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -23981,7 +23981,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -24037,7 +24037,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>Sanger sequencing, NGS</t>
+          <t>Sanger sequencing</t>
         </is>
       </c>
     </row>
@@ -24149,7 +24149,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -24177,7 +24177,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>Dolutegravir, Emtricitabine, Tenofovir disoproxil fumarate</t>
+          <t>Doravirine, TDF, FTC</t>
         </is>
       </c>
     </row>
@@ -24429,7 +24429,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -24457,7 +24457,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI, PI, INSTI</t>
+          <t>Pol</t>
         </is>
       </c>
     </row>
@@ -24653,7 +24653,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -24877,7 +24877,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -24933,7 +24933,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -24961,7 +24961,7 @@
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -25101,7 +25101,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -25213,7 +25213,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>LC723952-LC724015</t>
+          <t>LC723952–LC724015</t>
         </is>
       </c>
     </row>
@@ -25297,7 +25297,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2020–2021</t>
         </is>
       </c>
     </row>
@@ -25549,7 +25549,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -25577,7 +25577,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25689,7 +25689,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25717,7 +25717,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25745,7 +25745,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25773,7 +25773,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25801,7 +25801,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25829,7 +25829,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25857,7 +25857,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25885,7 +25885,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25941,7 +25941,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25969,7 +25969,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -25997,7 +25997,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26025,7 +26025,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -26137,7 +26137,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26165,7 +26165,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Lesotho</t>
         </is>
       </c>
     </row>
@@ -26221,7 +26221,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26277,7 +26277,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26333,7 +26333,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26389,7 +26389,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26417,7 +26417,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -26445,7 +26445,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Efavirenz, Nevirapine, Abacavir, Zidovudine</t>
         </is>
       </c>
     </row>
@@ -26669,7 +26669,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>RT, IN</t>
         </is>
       </c>
     </row>
@@ -26753,7 +26753,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>Whole blood</t>
+          <t>Proviral DNA</t>
         </is>
       </c>
     </row>
@@ -26837,7 +26837,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26893,7 +26893,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -26949,7 +26949,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>NRTI</t>
         </is>
       </c>
     </row>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -27537,7 +27537,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>2000-2020</t>
+          <t>2000–2020</t>
         </is>
       </c>
     </row>
@@ -27565,7 +27565,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -27593,7 +27593,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>PR, RT</t>
         </is>
       </c>
     </row>
@@ -27649,7 +27649,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -27789,7 +27789,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -28209,7 +28209,7 @@
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI</t>
+          <t>NRTI, PI (specifically TDF, 3TC, EFV, DTG, and others)</t>
         </is>
       </c>
     </row>
@@ -28321,7 +28321,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -28377,7 +28377,7 @@
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -28461,7 +28461,7 @@
       </c>
       <c r="F1001" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -28517,7 +28517,7 @@
       </c>
       <c r="F1003" t="inlineStr">
         <is>
-          <t>NGS</t>
+          <t>Next-generation sequencing (NGS)</t>
         </is>
       </c>
     </row>
@@ -28657,7 +28657,7 @@
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>NRTI, NNRTI, INSTI</t>
         </is>
       </c>
     </row>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -28741,7 +28741,7 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -28909,7 +28909,7 @@
       </c>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -28937,7 +28937,7 @@
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>Pol</t>
+          <t>PR, RT</t>
         </is>
       </c>
     </row>
@@ -28965,7 +28965,7 @@
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>RT-PCR followed by Sanger sequencing</t>
+          <t>Sanger sequencing</t>
         </is>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -29105,7 +29105,7 @@
       </c>
       <c r="F1024" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI</t>
+          <t>NRTIs, NNRTIs</t>
         </is>
       </c>
     </row>
@@ -29581,7 +29581,7 @@
       </c>
       <c r="F1041" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="F1046" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -29917,7 +29917,7 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -30029,7 +30029,7 @@
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -30309,7 +30309,7 @@
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>Sanger sequencing, Nanopore sequencing</t>
+          <t>ONT sequencing, Sanger sequencing, Illumina sequencing</t>
         </is>
       </c>
     </row>
@@ -30365,7 +30365,7 @@
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -30421,7 +30421,7 @@
       </c>
       <c r="F1071" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -30449,7 +30449,7 @@
       </c>
       <c r="F1072" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -30477,7 +30477,7 @@
       </c>
       <c r="F1073" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -30617,7 +30617,7 @@
       </c>
       <c r="F1078" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -30645,7 +30645,7 @@
       </c>
       <c r="F1079" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -30673,7 +30673,7 @@
       </c>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -30701,7 +30701,7 @@
       </c>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -30729,7 +30729,7 @@
       </c>
       <c r="F1082" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -30757,7 +30757,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -30785,7 +30785,7 @@
       </c>
       <c r="F1084" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -30813,7 +30813,7 @@
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -30869,7 +30869,7 @@
       </c>
       <c r="F1087" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -31149,7 +31149,7 @@
       </c>
       <c r="F1097" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -31177,7 +31177,7 @@
       </c>
       <c r="F1098" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -31205,7 +31205,7 @@
       </c>
       <c r="F1099" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -31233,7 +31233,7 @@
       </c>
       <c r="F1100" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -31345,7 +31345,7 @@
       </c>
       <c r="F1104" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>NRTI, PI</t>
         </is>
       </c>
     </row>
@@ -31373,7 +31373,7 @@
       </c>
       <c r="F1105" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Lopinavir/ritonavir</t>
         </is>
       </c>
     </row>
@@ -31793,7 +31793,7 @@
       </c>
       <c r="F1120" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI, PI</t>
+          <t>NRTIs</t>
         </is>
       </c>
     </row>
@@ -31821,7 +31821,7 @@
       </c>
       <c r="F1121" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -31849,7 +31849,7 @@
       </c>
       <c r="F1122" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -32045,7 +32045,7 @@
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -32073,7 +32073,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -32101,7 +32101,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -32129,7 +32129,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -32157,7 +32157,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -32213,7 +32213,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -32241,7 +32241,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>NNRTI, PI</t>
+          <t>NNRTI, INSTI, PI</t>
         </is>
       </c>
     </row>
@@ -32465,7 +32465,7 @@
       </c>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>2010-2021</t>
+          <t>2010–2021</t>
         </is>
       </c>
     </row>
@@ -32493,7 +32493,7 @@
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -32521,7 +32521,7 @@
       </c>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>PR, RT</t>
         </is>
       </c>
     </row>
@@ -32577,7 +32577,7 @@
       </c>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>Whole blood, PBMC</t>
+          <t>Whole Blood, PBMC</t>
         </is>
       </c>
     </row>
@@ -32605,7 +32605,7 @@
       </c>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -32689,7 +32689,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>NRTI</t>
         </is>
       </c>
     </row>
@@ -32717,7 +32717,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -32941,7 +32941,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -33137,7 +33137,7 @@
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>NRTI, INSTI</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -33249,7 +33249,7 @@
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -33361,7 +33361,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>2013–2018</t>
+          <t>2013-2018</t>
         </is>
       </c>
     </row>
@@ -33613,7 +33613,7 @@
       </c>
       <c r="F1185" t="inlineStr">
         <is>
-          <t>Efavirenz, Emtricitabine, Tenofovir, Lamivudine, Nevirapine, Zidovudine</t>
+          <t>Efavirenz, Emtricitabine, Tenofovir, Lamivudine, Zidovudine</t>
         </is>
       </c>
     </row>
@@ -33837,7 +33837,7 @@
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -33893,7 +33893,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -34005,7 +34005,7 @@
       </c>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -34061,7 +34061,7 @@
       </c>
       <c r="F1201" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -34089,7 +34089,7 @@
       </c>
       <c r="F1202" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>** Yes</t>
         </is>
       </c>
     </row>
@@ -34117,7 +34117,7 @@
       </c>
       <c r="F1203" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>** No</t>
         </is>
       </c>
     </row>
@@ -34145,7 +34145,7 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>** No</t>
         </is>
       </c>
     </row>
@@ -34173,7 +34173,7 @@
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>** Not reported</t>
         </is>
       </c>
     </row>
@@ -34201,7 +34201,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>** 551</t>
         </is>
       </c>
     </row>
@@ -34229,7 +34229,7 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>** Ethiopia</t>
         </is>
       </c>
     </row>
@@ -34257,7 +34257,7 @@
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>2017–2019</t>
+          <t>** 2007–2019</t>
         </is>
       </c>
     </row>
@@ -34285,7 +34285,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>** No</t>
         </is>
       </c>
     </row>
@@ -34313,7 +34313,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>Pol</t>
+          <t>** Pol</t>
         </is>
       </c>
     </row>
@@ -34341,7 +34341,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>Sanger sequencing</t>
+          <t>** Sanger sequencing</t>
         </is>
       </c>
     </row>
@@ -34369,7 +34369,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>Whole Blood, Plasma</t>
+          <t>** Plasma</t>
         </is>
       </c>
     </row>
@@ -34397,7 +34397,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>** Yes</t>
         </is>
       </c>
     </row>
@@ -34425,7 +34425,7 @@
       </c>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>** No</t>
         </is>
       </c>
     </row>
@@ -34453,7 +34453,7 @@
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>** Yes</t>
         </is>
       </c>
     </row>
@@ -34481,7 +34481,7 @@
       </c>
       <c r="F1216" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI</t>
+          <t>** NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -34509,7 +34509,7 @@
       </c>
       <c r="F1217" t="inlineStr">
         <is>
-          <t>Zidovudine, Lamivudine, Nevirapine, Stavudine, Efavirenz</t>
+          <t>** AZT, 3TC, NVP, D4T, EFV</t>
         </is>
       </c>
     </row>
@@ -34565,7 +34565,7 @@
       </c>
       <c r="F1219" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -34621,7 +34621,7 @@
       </c>
       <c r="F1221" t="inlineStr">
         <is>
-          <t>MK580543-MK580618; JF273935-JF273965; JQ796152-JQ796169; MK867721-MK867755; OQ985493-OQ985958</t>
+          <t>MK580543-MK580618, JF273935-JF273965, JQ796152-JQ796169, MK867721-MK867755, OQ985493-OQ985958</t>
         </is>
       </c>
     </row>
@@ -34957,7 +34957,7 @@
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -35125,7 +35125,7 @@
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -35153,7 +35153,7 @@
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>2019–2022</t>
         </is>
       </c>
     </row>
@@ -35181,7 +35181,7 @@
       </c>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -35209,7 +35209,7 @@
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -35237,7 +35237,7 @@
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -35265,7 +35265,7 @@
       </c>
       <c r="F1244" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -35293,7 +35293,7 @@
       </c>
       <c r="F1245" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -35349,7 +35349,7 @@
       </c>
       <c r="F1247" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -35377,7 +35377,7 @@
       </c>
       <c r="F1248" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NRTI, INSTI</t>
         </is>
       </c>
     </row>
@@ -35405,7 +35405,7 @@
       </c>
       <c r="F1249" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -35545,7 +35545,7 @@
       </c>
       <c r="F1254" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -35573,7 +35573,7 @@
       </c>
       <c r="F1255" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Kenya</t>
         </is>
       </c>
     </row>
@@ -35601,7 +35601,7 @@
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>2015-2021</t>
         </is>
       </c>
     </row>
@@ -35629,7 +35629,7 @@
       </c>
       <c r="F1257" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -35657,7 +35657,7 @@
       </c>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -35685,7 +35685,7 @@
       </c>
       <c r="F1259" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -35713,7 +35713,7 @@
       </c>
       <c r="F1260" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -35741,7 +35741,7 @@
       </c>
       <c r="F1261" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -35769,7 +35769,7 @@
       </c>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -35797,7 +35797,7 @@
       </c>
       <c r="F1263" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -35825,7 +35825,7 @@
       </c>
       <c r="F1264" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NRTI, NNRTI, INSTI</t>
         </is>
       </c>
     </row>
@@ -35853,7 +35853,7 @@
       </c>
       <c r="F1265" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>TDF, 3TC, FTC</t>
         </is>
       </c>
     </row>
@@ -35993,7 +35993,7 @@
       </c>
       <c r="F1270" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36021,7 +36021,7 @@
       </c>
       <c r="F1271" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36049,7 +36049,7 @@
       </c>
       <c r="F1272" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36077,7 +36077,7 @@
       </c>
       <c r="F1273" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36105,7 +36105,7 @@
       </c>
       <c r="F1274" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36133,7 +36133,7 @@
       </c>
       <c r="F1275" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36161,7 +36161,7 @@
       </c>
       <c r="F1276" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36189,7 +36189,7 @@
       </c>
       <c r="F1277" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36217,7 +36217,7 @@
       </c>
       <c r="F1278" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36245,7 +36245,7 @@
       </c>
       <c r="F1279" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36273,7 +36273,7 @@
       </c>
       <c r="F1280" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36301,7 +36301,7 @@
       </c>
       <c r="F1281" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36441,7 +36441,7 @@
       </c>
       <c r="F1286" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>1,161</t>
         </is>
       </c>
     </row>
@@ -36525,7 +36525,7 @@
       </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -36749,7 +36749,7 @@
       </c>
       <c r="F1297" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -36973,7 +36973,7 @@
       </c>
       <c r="F1305" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37001,7 +37001,7 @@
       </c>
       <c r="F1306" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37029,7 +37029,7 @@
       </c>
       <c r="F1307" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37057,7 +37057,7 @@
       </c>
       <c r="F1308" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37141,7 +37141,7 @@
       </c>
       <c r="F1311" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37197,7 +37197,7 @@
       </c>
       <c r="F1313" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -37225,7 +37225,7 @@
       </c>
       <c r="F1314" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -37337,7 +37337,7 @@
       </c>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37365,7 +37365,7 @@
       </c>
       <c r="F1319" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37393,7 +37393,7 @@
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37421,7 +37421,7 @@
       </c>
       <c r="F1321" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37449,7 +37449,7 @@
       </c>
       <c r="F1322" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37477,7 +37477,7 @@
       </c>
       <c r="F1323" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37505,7 +37505,7 @@
       </c>
       <c r="F1324" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37533,7 +37533,7 @@
       </c>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37561,7 +37561,7 @@
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37589,7 +37589,7 @@
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37617,7 +37617,7 @@
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37645,7 +37645,7 @@
       </c>
       <c r="F1329" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -37869,7 +37869,7 @@
       </c>
       <c r="F1337" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37953,7 +37953,7 @@
       </c>
       <c r="F1340" t="inlineStr">
         <is>
-          <t>DBS</t>
+          <t>Dried blood spots</t>
         </is>
       </c>
     </row>
@@ -37981,7 +37981,7 @@
       </c>
       <c r="F1341" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -38009,7 +38009,7 @@
       </c>
       <c r="F1342" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -38065,7 +38065,7 @@
       </c>
       <c r="F1344" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NRTI</t>
         </is>
       </c>
     </row>
@@ -38093,7 +38093,7 @@
       </c>
       <c r="F1345" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Zidovudine</t>
         </is>
       </c>
     </row>
@@ -38261,7 +38261,7 @@
       </c>
       <c r="F1351" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Africa, USA</t>
         </is>
       </c>
     </row>
@@ -38429,7 +38429,7 @@
       </c>
       <c r="F1357" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -38541,7 +38541,7 @@
       </c>
       <c r="F1361" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -38765,7 +38765,7 @@
       </c>
       <c r="F1369" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -38961,7 +38961,7 @@
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -38989,7 +38989,7 @@
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -39129,7 +39129,7 @@
       </c>
       <c r="F1382" t="inlineStr">
         <is>
-          <t>6030</t>
+          <t>1,495</t>
         </is>
       </c>
     </row>
@@ -39213,7 +39213,7 @@
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -39241,7 +39241,7 @@
       </c>
       <c r="F1386" t="inlineStr">
         <is>
-          <t>gp120</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -39353,7 +39353,7 @@
       </c>
       <c r="F1390" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -39493,7 +39493,7 @@
       </c>
       <c r="F1395" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -39605,7 +39605,7 @@
       </c>
       <c r="F1399" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -39689,7 +39689,7 @@
       </c>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Env</t>
         </is>
       </c>
     </row>
@@ -39773,7 +39773,7 @@
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -39829,7 +39829,7 @@
       </c>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -39857,7 +39857,7 @@
       </c>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -39885,7 +39885,7 @@
       </c>
       <c r="F1409" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -40193,7 +40193,7 @@
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>Whole Blood, Plasma</t>
+          <t>Plasma, Whole Blood</t>
         </is>
       </c>
     </row>
@@ -40305,7 +40305,7 @@
       </c>
       <c r="F1424" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI, PI (based on shift to second-line therapy)</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -40417,7 +40417,7 @@
       </c>
       <c r="F1428" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -40473,7 +40473,7 @@
       </c>
       <c r="F1430" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>1070</t>
         </is>
       </c>
     </row>
@@ -40781,7 +40781,7 @@
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -41033,7 +41033,7 @@
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>PR, RT</t>
+          <t>Pol</t>
         </is>
       </c>
     </row>
@@ -41229,7 +41229,7 @@
       </c>
       <c r="F1457" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -41285,7 +41285,7 @@
       </c>
       <c r="F1459" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41481,7 +41481,7 @@
       </c>
       <c r="F1466" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -41537,7 +41537,7 @@
       </c>
       <c r="F1468" t="inlineStr">
         <is>
-          <t>Plasma, Whole Blood</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -41649,7 +41649,7 @@
       </c>
       <c r="F1472" t="inlineStr">
         <is>
-          <t>NRTI</t>
+          <t>NRTI, NNRTI, PI</t>
         </is>
       </c>
     </row>
@@ -41677,7 +41677,7 @@
       </c>
       <c r="F1473" t="inlineStr">
         <is>
-          <t>Lamivudine, Abacavir, Zidovudine</t>
+          <t>Lamivudine, Abacavir, Zidovudine, Lopinavir/Ritonavir</t>
         </is>
       </c>
     </row>
@@ -41761,7 +41761,7 @@
       </c>
       <c r="F1476" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -41817,7 +41817,7 @@
       </c>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -41845,7 +41845,7 @@
       </c>
       <c r="F1479" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
@@ -41873,7 +41873,7 @@
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -41901,7 +41901,7 @@
       </c>
       <c r="F1481" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -41929,7 +41929,7 @@
       </c>
       <c r="F1482" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -41957,7 +41957,7 @@
       </c>
       <c r="F1483" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -41985,7 +41985,7 @@
       </c>
       <c r="F1484" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -42013,7 +42013,7 @@
       </c>
       <c r="F1485" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42069,7 +42069,7 @@
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -42097,7 +42097,7 @@
       </c>
       <c r="F1488" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -42125,7 +42125,7 @@
       </c>
       <c r="F1489" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -42321,7 +42321,7 @@
       </c>
       <c r="F1496" t="inlineStr">
         <is>
-          <t>2018-2020</t>
+          <t>2018–2020</t>
         </is>
       </c>
     </row>
@@ -42349,7 +42349,7 @@
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42377,7 +42377,7 @@
       </c>
       <c r="F1498" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Pol</t>
         </is>
       </c>
     </row>
@@ -42405,7 +42405,7 @@
       </c>
       <c r="F1499" t="inlineStr">
         <is>
-          <t>NGS (Next-Generation Sequencing)</t>
+          <t>NGS</t>
         </is>
       </c>
     </row>
@@ -42545,7 +42545,7 @@
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -42573,7 +42573,7 @@
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -42629,7 +42629,7 @@
       </c>
       <c r="F1507" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -42881,7 +42881,7 @@
       </c>
       <c r="F1516" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -43021,7 +43021,7 @@
       </c>
       <c r="F1521" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -43245,7 +43245,7 @@
       </c>
       <c r="F1529" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -43441,7 +43441,7 @@
       </c>
       <c r="F1536" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI, PI, INSTI</t>
+          <t>NRTI, PI, INSTI</t>
         </is>
       </c>
     </row>
@@ -43469,7 +43469,7 @@
       </c>
       <c r="F1537" t="inlineStr">
         <is>
-          <t>Lamivudine, Tenofovir</t>
+          <t>Lamivudine, Tenofovir, Efavirenz, Dolutegravir</t>
         </is>
       </c>
     </row>
@@ -43917,7 +43917,7 @@
       </c>
       <c r="F1553" t="inlineStr">
         <is>
-          <t>Dolutegravir, rilpivirine, lamivudine, tenofovir, crizaline, efavirenz</t>
+          <t>Dolutegravir, rilpivirine, lamivudine, tenofovir, efavirenz</t>
         </is>
       </c>
     </row>
@@ -44113,7 +44113,7 @@
       </c>
       <c r="F1560" t="inlineStr">
         <is>
-          <t>2018–2022</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -44197,7 +44197,7 @@
       </c>
       <c r="F1563" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -44337,7 +44337,7 @@
       </c>
       <c r="F1568" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -44365,7 +44365,7 @@
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NVP, ETR, ABC</t>
         </is>
       </c>
     </row>
@@ -44533,7 +44533,7 @@
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -44617,7 +44617,7 @@
       </c>
       <c r="F1578" t="inlineStr">
         <is>
-          <t>Pol, Env</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -44645,7 +44645,7 @@
       </c>
       <c r="F1579" t="inlineStr">
         <is>
-          <t>Next-generation sequencing (NGS)</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -44673,7 +44673,7 @@
       </c>
       <c r="F1580" t="inlineStr">
         <is>
-          <t>Plasma, DBS</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -44729,7 +44729,7 @@
       </c>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -44813,7 +44813,7 @@
       </c>
       <c r="F1585" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -44953,7 +44953,7 @@
       </c>
       <c r="F1590" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -44981,7 +44981,7 @@
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
@@ -45037,7 +45037,7 @@
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -45065,7 +45065,7 @@
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -45093,7 +45093,7 @@
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -45121,7 +45121,7 @@
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -45149,7 +45149,7 @@
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -45205,7 +45205,7 @@
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -45261,7 +45261,7 @@
       </c>
       <c r="F1601" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -45345,7 +45345,7 @@
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -45513,7 +45513,7 @@
       </c>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>PR, RT</t>
+          <t>Pol</t>
         </is>
       </c>
     </row>
@@ -45569,7 +45569,7 @@
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -45597,7 +45597,7 @@
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -45709,7 +45709,7 @@
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -46157,7 +46157,7 @@
       </c>
       <c r="F1633" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -46381,7 +46381,7 @@
       </c>
       <c r="F1641" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46409,7 +46409,7 @@
       </c>
       <c r="F1642" t="inlineStr">
         <is>
-          <t>RT (reverse transcriptase)</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -46437,7 +46437,7 @@
       </c>
       <c r="F1643" t="inlineStr">
         <is>
-          <t>Sanger sequencing and NGS (next-generation sequencing)</t>
+          <t>Sanger sequencing and NGS</t>
         </is>
       </c>
     </row>
@@ -46465,7 +46465,7 @@
       </c>
       <c r="F1644" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -46549,7 +46549,7 @@
       </c>
       <c r="F1647" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46577,7 +46577,7 @@
       </c>
       <c r="F1648" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -46605,7 +46605,7 @@
       </c>
       <c r="F1649" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -46661,7 +46661,7 @@
       </c>
       <c r="F1651" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47305,7 +47305,7 @@
       </c>
       <c r="F1674" t="inlineStr">
         <is>
-          <t>PR, RT</t>
+          <t>RT, PR</t>
         </is>
       </c>
     </row>
@@ -47389,7 +47389,7 @@
       </c>
       <c r="F1677" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47417,7 +47417,7 @@
       </c>
       <c r="F1678" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47445,7 +47445,7 @@
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -47473,7 +47473,7 @@
       </c>
       <c r="F1680" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -47501,7 +47501,7 @@
       </c>
       <c r="F1681" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -47613,7 +47613,7 @@
       </c>
       <c r="F1685" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -47725,7 +47725,7 @@
       </c>
       <c r="F1689" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -47753,7 +47753,7 @@
       </c>
       <c r="F1690" t="inlineStr">
         <is>
-          <t>Pol (indicating it relates to the drug resistance profile)</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -47781,7 +47781,7 @@
       </c>
       <c r="F1691" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -47809,7 +47809,7 @@
       </c>
       <c r="F1692" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Plasma</t>
         </is>
       </c>
     </row>
@@ -47865,7 +47865,7 @@
       </c>
       <c r="F1694" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47949,7 +47949,7 @@
       </c>
       <c r="F1697" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -48201,7 +48201,7 @@
       </c>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48285,7 +48285,7 @@
       </c>
       <c r="F1709" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -48341,7 +48341,7 @@
       </c>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -48369,7 +48369,7 @@
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48397,7 +48397,7 @@
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>EVG/c/FTC/TAF, DTG+TDF/FTC</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48621,7 +48621,7 @@
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48649,7 +48649,7 @@
       </c>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48677,7 +48677,7 @@
       </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48705,7 +48705,7 @@
       </c>
       <c r="F1724" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48733,7 +48733,7 @@
       </c>
       <c r="F1725" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -48789,7 +48789,7 @@
       </c>
       <c r="F1727" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48845,7 +48845,7 @@
       </c>
       <c r="F1729" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -48873,7 +48873,7 @@
       </c>
       <c r="F1730" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -48985,7 +48985,7 @@
       </c>
       <c r="F1734" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -49069,7 +49069,7 @@
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49097,7 +49097,7 @@
       </c>
       <c r="F1738" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -49153,7 +49153,7 @@
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -49181,7 +49181,7 @@
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49237,7 +49237,7 @@
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -49265,7 +49265,7 @@
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -49293,7 +49293,7 @@
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -49489,7 +49489,7 @@
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>2012–2023</t>
         </is>
       </c>
     </row>
@@ -49517,7 +49517,7 @@
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49545,7 +49545,7 @@
       </c>
       <c r="F1754" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -49573,7 +49573,7 @@
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -49601,7 +49601,7 @@
       </c>
       <c r="F1756" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -49713,7 +49713,7 @@
       </c>
       <c r="F1760" t="inlineStr">
         <is>
-          <t>NRTI, NNRTI, PI, INSTI</t>
+          <t>NRTI, NNRTI</t>
         </is>
       </c>
     </row>
@@ -49741,7 +49741,7 @@
       </c>
       <c r="F1761" t="inlineStr">
         <is>
-          <t>Lamivudine, Abacavir, Lopinavir, Nevirapine, Dolutegravir</t>
+          <t>Lamivudine, Abacavir, Lopinavir/Ritonavir, Zidovudine, Tenofovir, Emtricitabine, Efavirenz</t>
         </is>
       </c>
     </row>
@@ -49993,7 +49993,7 @@
       </c>
       <c r="F1770" t="inlineStr">
         <is>
-          <t>PR, RT</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -50021,7 +50021,7 @@
       </c>
       <c r="F1771" t="inlineStr">
         <is>
-          <t>Sanger sequencing</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -50161,7 +50161,7 @@
       </c>
       <c r="F1776" t="inlineStr">
         <is>
-          <t>NRTI, PI, INSTI</t>
+          <t>NRTI, PI</t>
         </is>
       </c>
     </row>
@@ -50357,7 +50357,7 @@
       </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>Not Reported</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -50385,7 +50385,7 @@
       </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>2019–2021</t>
         </is>
       </c>
     </row>
@@ -50413,7 +50413,7 @@
       </c>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -50441,7 +50441,7 @@
       </c>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -50497,7 +50497,7 @@
       </c>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Plasma, PBMC</t>
         </is>
       </c>
     </row>
@@ -50525,7 +50525,7 @@
       </c>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -50609,7 +50609,7 @@
       </c>
       <c r="F1792" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>NRTI, NNRTI, PI, INSTI</t>
         </is>
       </c>
     </row>
@@ -50637,7 +50637,7 @@
       </c>
       <c r="F1793" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -50749,7 +50749,7 @@
       </c>
       <c r="F1797" t="inlineStr">
         <is>
-          <t>K03455</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -51001,7 +51001,7 @@
       </c>
       <c r="F1806" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51085,7 +51085,7 @@
       </c>
       <c r="F1809" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -51365,7 +51365,7 @@
       </c>
       <c r="F1819" t="inlineStr">
         <is>
-          <t>Sanger sequencing and NGS (Illumina MiniSeq)</t>
+          <t>Sanger sequencing, NGS</t>
         </is>
       </c>
     </row>
@@ -51533,7 +51533,7 @@
       </c>
       <c r="F1825" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -51757,7 +51757,7 @@
       </c>
       <c r="F1833" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51785,7 +51785,7 @@
       </c>
       <c r="F1834" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -51897,7 +51897,7 @@
       </c>
       <c r="F1838" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51953,7 +51953,7 @@
       </c>
       <c r="F1840" t="inlineStr">
         <is>
-          <t>NRTI, PI</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -52009,7 +52009,7 @@
       </c>
       <c r="F1842" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -52121,7 +52121,7 @@
       </c>
       <c r="F1846" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1214</t>
         </is>
       </c>
     </row>
@@ -52149,7 +52149,7 @@
       </c>
       <c r="F1847" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
@@ -52177,7 +52177,7 @@
       </c>
       <c r="F1848" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>2019–2020</t>
         </is>
       </c>
     </row>
@@ -52205,7 +52205,7 @@
       </c>
       <c r="F1849" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52233,7 +52233,7 @@
       </c>
       <c r="F1850" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -52261,7 +52261,7 @@
       </c>
       <c r="F1851" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -52289,7 +52289,7 @@
       </c>
       <c r="F1852" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -52317,7 +52317,7 @@
       </c>
       <c r="F1853" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -52373,7 +52373,7 @@
       </c>
       <c r="F1855" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -52401,7 +52401,7 @@
       </c>
       <c r="F1856" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NRTIs</t>
         </is>
       </c>
     </row>
@@ -52429,7 +52429,7 @@
       </c>
       <c r="F1857" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>TDF and EFV/NVP</t>
         </is>
       </c>
     </row>
@@ -52653,7 +52653,7 @@
       </c>
       <c r="F1865" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52849,7 +52849,7 @@
       </c>
       <c r="F1872" t="inlineStr">
         <is>
-          <t>NRTI, INSTI</t>
+          <t>NRTI</t>
         </is>
       </c>
     </row>
@@ -52877,7 +52877,7 @@
       </c>
       <c r="F1873" t="inlineStr">
         <is>
-          <t>Tenofovir, Lamivudine, Dolutegravir</t>
+          <t>TDF, 3TC, DTG, EFZ, DRV, RTV</t>
         </is>
       </c>
     </row>
@@ -52933,7 +52933,7 @@
       </c>
       <c r="F1875" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -52961,7 +52961,7 @@
       </c>
       <c r="F1876" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -53101,7 +53101,7 @@
       </c>
       <c r="F1881" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53129,7 +53129,7 @@
       </c>
       <c r="F1882" t="inlineStr">
         <is>
-          <t>PR, RT</t>
+          <t>RT</t>
         </is>
       </c>
     </row>
@@ -53185,7 +53185,7 @@
       </c>
       <c r="F1884" t="inlineStr">
         <is>
-          <t>Serum</t>
+          <t>Blood</t>
         </is>
       </c>
     </row>
@@ -53381,7 +53381,7 @@
       </c>
       <c r="F1891" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -53493,7 +53493,7 @@
       </c>
       <c r="F1895" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -53521,7 +53521,7 @@
       </c>
       <c r="F1896" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -53549,7 +53549,7 @@
       </c>
       <c r="F1897" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53577,7 +53577,7 @@
       </c>
       <c r="F1898" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>gag, pol, env, vpu</t>
         </is>
       </c>
     </row>
@@ -53605,7 +53605,7 @@
       </c>
       <c r="F1899" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -53633,7 +53633,7 @@
       </c>
       <c r="F1900" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not reported</t>
         </is>
       </c>
     </row>
@@ -53661,7 +53661,7 @@
       </c>
       <c r="F1901" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53689,7 +53689,7 @@
       </c>
       <c r="F1902" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53717,7 +53717,7 @@
       </c>
       <c r="F1903" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53745,7 +53745,7 @@
       </c>
       <c r="F1904" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -53773,7 +53773,7 @@
       </c>
       <c r="F1905" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -53941,7 +53941,7 @@
       </c>
       <c r="F1911" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -53997,7 +53997,7 @@
       </c>
       <c r="F1913" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -54025,7 +54025,7 @@
       </c>
       <c r="F1914" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -54053,7 +54053,7 @@
       </c>
       <c r="F1915" t="inlineStr">
         <is>
-          <t>Sanger sequencing</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -54081,7 +54081,7 @@
       </c>
       <c r="F1916" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
@@ -54137,7 +54137,7 @@
       </c>
       <c r="F1918" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -54165,7 +54165,7 @@
       </c>
       <c r="F1919" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -54193,7 +54193,7 @@
       </c>
       <c r="F1920" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -54221,7 +54221,7 @@
       </c>
       <c r="F1921" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Not Reported</t>
         </is>
       </c>
     </row>
